--- a/Fordeling af vejledere 2023.xlsx
+++ b/Fordeling af vejledere 2023.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSC_Pro_B\VejlederMatrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F85E0B5-F2AD-4BE1-94DA-395693620042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93F0099-0599-46C6-8A69-745FBBE69480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{60DC61CD-24EB-48E9-BCC3-62733BE6C782}"/>
+    <workbookView xWindow="1035" yWindow="2910" windowWidth="8700" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{60DC61CD-24EB-48E9-BCC3-62733BE6C782}"/>
   </bookViews>
   <sheets>
     <sheet name="Vejlederfordeling" sheetId="1" r:id="rId1"/>
-    <sheet name="Opgavekombinationer" sheetId="4" r:id="rId2"/>
-    <sheet name="Udkast til tidsplan" sheetId="3" r:id="rId3"/>
+    <sheet name="Resultat" sheetId="5" r:id="rId2"/>
+    <sheet name="Opgavekombinationer" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Vejlederfordeling!$A$1:$D$1</definedName>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="168">
   <si>
     <t>Klasse</t>
   </si>
@@ -416,168 +416,6 @@
     <t>Neural network</t>
   </si>
   <si>
-    <t>Kolonne1</t>
-  </si>
-  <si>
-    <t>Kolonne2</t>
-  </si>
-  <si>
-    <t>Kolonne3</t>
-  </si>
-  <si>
-    <t>Kolonne4</t>
-  </si>
-  <si>
-    <t>Kolonne5</t>
-  </si>
-  <si>
-    <t>Kolonne6</t>
-  </si>
-  <si>
-    <t>Kolonne7</t>
-  </si>
-  <si>
-    <t>Kolonne8</t>
-  </si>
-  <si>
-    <t>Kolonne9</t>
-  </si>
-  <si>
-    <t>Kolonne10</t>
-  </si>
-  <si>
-    <t>Kolonne11</t>
-  </si>
-  <si>
-    <t>Kolonne12</t>
-  </si>
-  <si>
-    <t>Kolonne13</t>
-  </si>
-  <si>
-    <t>Kolonne14</t>
-  </si>
-  <si>
-    <t>Kolonne15</t>
-  </si>
-  <si>
-    <t>Kolonne16</t>
-  </si>
-  <si>
-    <t>Kolonne17</t>
-  </si>
-  <si>
-    <t>Kolonne18</t>
-  </si>
-  <si>
-    <t>Kolonne19</t>
-  </si>
-  <si>
-    <t>Kolonne20</t>
-  </si>
-  <si>
-    <t>Kolonne21</t>
-  </si>
-  <si>
-    <t>Kolonne22</t>
-  </si>
-  <si>
-    <t>Kolonne23</t>
-  </si>
-  <si>
-    <t>Kolonne24</t>
-  </si>
-  <si>
-    <t>Kolonne25</t>
-  </si>
-  <si>
-    <t>Kolonne26</t>
-  </si>
-  <si>
-    <t>Kolonne27</t>
-  </si>
-  <si>
-    <t>Kolonne28</t>
-  </si>
-  <si>
-    <t>BSE+DWX</t>
-  </si>
-  <si>
-    <t>BSE+KU</t>
-  </si>
-  <si>
-    <t>BSE+MKR</t>
-  </si>
-  <si>
-    <t>ILR+BEJE</t>
-  </si>
-  <si>
-    <t>ILR+NHJ</t>
-  </si>
-  <si>
-    <t>ILR+MKJA</t>
-  </si>
-  <si>
-    <t>Jema+JJJ</t>
-  </si>
-  <si>
-    <t>JEMA+THFI</t>
-  </si>
-  <si>
-    <t>JJJ+DWX</t>
-  </si>
-  <si>
-    <t>JJJ+MKJA</t>
-  </si>
-  <si>
-    <t>KIAN+CSC</t>
-  </si>
-  <si>
-    <t>KIAN+ NHJ</t>
-  </si>
-  <si>
-    <t>JJJ+KRA</t>
-  </si>
-  <si>
-    <t>KRA+MKJA</t>
-  </si>
-  <si>
-    <t>KRA+MKR</t>
-  </si>
-  <si>
-    <t>KRA+NHJ</t>
-  </si>
-  <si>
-    <t>KRA+SJ</t>
-  </si>
-  <si>
-    <t>LBI+CSC</t>
-  </si>
-  <si>
-    <t>LBI+DWX</t>
-  </si>
-  <si>
-    <t>LBI+ILR</t>
-  </si>
-  <si>
-    <t>LBI+KU</t>
-  </si>
-  <si>
-    <t>MKR+MKJA</t>
-  </si>
-  <si>
-    <t>MKR+SJ</t>
-  </si>
-  <si>
-    <t>THFI+AF</t>
-  </si>
-  <si>
-    <t>THFI+BEJE</t>
-  </si>
-  <si>
-    <t>THFI+CU</t>
-  </si>
-  <si>
     <t>Lucas Midtgaard FriisNielsen</t>
   </si>
   <si>
@@ -785,22 +623,25 @@
     <t>Sum</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Idehistorie</t>
   </si>
   <si>
     <t>CHS</t>
+  </si>
+  <si>
+    <t>Vejleder 1:</t>
+  </si>
+  <si>
+    <t>Vejleder 2:</t>
+  </si>
+  <si>
+    <t>Optaget</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -837,21 +678,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -859,38 +694,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -898,14 +706,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1328,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1351,7 +1151,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1374,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1397,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1417,7 +1217,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1440,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1463,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1483,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1506,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1529,7 +1329,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1552,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1575,7 +1375,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1598,7 +1398,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1618,7 +1418,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1641,7 +1441,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1664,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1687,7 +1487,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1710,7 +1510,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -1733,7 +1533,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -1756,7 +1556,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -1776,7 +1576,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -1799,7 +1599,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -1822,7 +1622,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1842,7 +1642,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1865,7 +1665,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -1888,7 +1688,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -1911,7 +1711,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -1931,7 +1731,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -1951,7 +1751,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -1971,7 +1771,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -1991,7 +1791,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -2014,7 +1814,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
@@ -2037,7 +1837,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
@@ -2060,7 +1860,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
@@ -2080,7 +1880,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -2103,7 +1903,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
@@ -2123,7 +1923,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -2146,7 +1946,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -2169,7 +1969,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
@@ -2192,7 +1992,7 @@
         <v>64</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
@@ -2212,7 +2012,7 @@
         <v>64</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
         <v>34</v>
@@ -2232,7 +2032,7 @@
         <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
@@ -2255,7 +2055,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
         <v>34</v>
@@ -2278,7 +2078,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
         <v>34</v>
@@ -2301,7 +2101,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
         <v>34</v>
@@ -2324,7 +2124,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
         <v>34</v>
@@ -2347,7 +2147,7 @@
         <v>64</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
@@ -2370,7 +2170,7 @@
         <v>64</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
@@ -2393,7 +2193,7 @@
         <v>64</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
@@ -2413,7 +2213,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
         <v>34</v>
@@ -2436,7 +2236,7 @@
         <v>64</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
         <v>34</v>
@@ -2456,7 +2256,7 @@
         <v>64</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
         <v>34</v>
@@ -2479,7 +2279,7 @@
         <v>32</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
         <v>34</v>
@@ -2499,7 +2299,7 @@
         <v>32</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
         <v>34</v>
@@ -2519,7 +2319,7 @@
         <v>32</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
         <v>34</v>
@@ -2539,7 +2339,7 @@
         <v>32</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
         <v>34</v>
@@ -2579,7 +2379,7 @@
         <v>32</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
         <v>34</v>
@@ -2602,7 +2402,7 @@
         <v>38</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
         <v>83</v>
@@ -2625,7 +2425,7 @@
         <v>38</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
         <v>83</v>
@@ -2648,7 +2448,7 @@
         <v>38</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s">
         <v>83</v>
@@ -2691,7 +2491,7 @@
         <v>38</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
         <v>83</v>
@@ -2711,7 +2511,7 @@
         <v>38</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
         <v>83</v>
@@ -2734,7 +2534,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
         <v>83</v>
@@ -2754,7 +2554,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
         <v>78</v>
@@ -2777,7 +2577,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
         <v>78</v>
@@ -2800,7 +2600,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
         <v>78</v>
@@ -2823,7 +2623,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
         <v>78</v>
@@ -2859,11 +2659,474 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962369EF-29EB-4B58-9F31-07976FA2CBC9}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" t="s">
+        <v>167</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" t="s">
+        <v>167</v>
+      </c>
+      <c r="M26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8A9CE6-D3F9-4C9A-9A5B-5498A6ABD54E}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,7 +3139,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
@@ -2898,20 +3161,11 @@
         <v>8</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>216</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2924,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -3111,7 +3365,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -3463,7 +3717,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="F18">
         <v>18</v>
@@ -3657,737 +3911,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A913DC-F469-41FF-8BF7-8C4CBB71787F}">
-  <dimension ref="A1:AB27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
-    <col min="29" max="99" width="12.140625" customWidth="1"/>
-    <col min="100" max="999" width="13.140625" customWidth="1"/>
-    <col min="1000" max="9999" width="14" customWidth="1"/>
-    <col min="10000" max="16384" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="C3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>152</v>
-      </c>
-      <c r="W3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.52430555555555602</v>
-      </c>
-      <c r="C5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I5" t="s">
-        <v>164</v>
-      </c>
-      <c r="N5" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>166</v>
-      </c>
-      <c r="W5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>0.52430555555555503</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0.53472222222222199</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>0.53472222222222199</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.54513888888888895</v>
-      </c>
-      <c r="C7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" t="s">
-        <v>175</v>
-      </c>
-      <c r="J7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L7" t="s">
-        <v>177</v>
-      </c>
-      <c r="N7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>0.54513888888888895</v>
-      </c>
-      <c r="B8" s="11">
-        <v>0.55555555555555602</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.56597222222222299</v>
-      </c>
-      <c r="C9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" t="s">
-        <v>187</v>
-      </c>
-      <c r="T9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>0.56597222222222199</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.58680555555555602</v>
-      </c>
-      <c r="D11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" t="s">
-        <v>197</v>
-      </c>
-      <c r="M11" t="s">
-        <v>198</v>
-      </c>
-      <c r="O11" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>0.58680555555555503</v>
-      </c>
-      <c r="B12" s="11">
-        <v>0.59722222222222299</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB12" s="7"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>0.59722222222222199</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.60763888888888895</v>
-      </c>
-      <c r="E13" t="s">
-        <v>207</v>
-      </c>
-      <c r="K13" t="s">
-        <v>208</v>
-      </c>
-      <c r="M13" t="s">
-        <v>209</v>
-      </c>
-      <c r="V13" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>0.60763888888888895</v>
-      </c>
-      <c r="B14" s="11">
-        <v>0.61805555555555602</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="B15" s="12">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
